--- a/Devices/BarrunCUDA/currents.xlsx
+++ b/Devices/BarrunCUDA/currents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hackerman\Git\For_Academical_Purposes\Devices\BarrunCUDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D0EFA-87FA-4531-A824-EE6FBCD71E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C60522-3E3C-4C83-B1FA-DBC800500C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Mention</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>SUZYQ</t>
+  </si>
+  <si>
+    <t>Home bridge measured draw [mA]</t>
+  </si>
+  <si>
+    <t>YUNA</t>
+  </si>
+  <si>
+    <t>SSD1306</t>
+  </si>
+  <si>
+    <t>GRAN</t>
+  </si>
+  <si>
+    <t>MPU-6050</t>
+  </si>
+  <si>
+    <t>SUSAN</t>
+  </si>
+  <si>
+    <t>BME-280</t>
+  </si>
+  <si>
+    <t>CHIM</t>
+  </si>
+  <si>
+    <t>BMM-150</t>
+  </si>
+  <si>
+    <t>With all pixels set.</t>
   </si>
 </sst>
 </file>
@@ -451,22 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -483,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -498,7 +528,57 @@
       </c>
       <c r="E2" s="4">
         <f>SUM(C2:C100)</f>
-        <v>33</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
